--- a/data/raw/BANCO CAIXA 2024.xlsx
+++ b/data/raw/BANCO CAIXA 2024.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_CODE (DEVS)\CESAR_SCHOOL\PLURII_ECEEL\plurii-eceel\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6715D30-F8D1-400A-BC7F-82E936079A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="2024" sheetId="1" r:id="rId4"/>
+    <sheet name="2024" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="lsnaiF1zM1IdkEBEFv7YDOsw2S/20MbWNtAyjqAXRHE="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="466">
   <si>
     <t>Extrato        CAIXA ECONÔMICA FEDERAL  -  JANEIRO  2024</t>
   </si>
@@ -1324,123 +1333,229 @@
   </si>
   <si>
     <t>ENVIO PIX LARYSSA-DEVOLUÇÃO PARCIAL DE EMPRÉSTIMO EM 08/05/2017</t>
+  </si>
+  <si>
+    <t>CONTA</t>
+  </si>
+  <si>
+    <t>SUBCONTA</t>
+  </si>
+  <si>
+    <t>Receita com serviços</t>
+  </si>
+  <si>
+    <t>Despesa com pessoal</t>
+  </si>
+  <si>
+    <t>Despesas financeiras</t>
+  </si>
+  <si>
+    <t>Despesas administrativas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despesas tributárias </t>
+  </si>
+  <si>
+    <t>Outras entradas</t>
+  </si>
+  <si>
+    <t>Outras</t>
+  </si>
+  <si>
+    <t>Contabilidade</t>
+  </si>
+  <si>
+    <t>Despesas bancárias</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>FGTS</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>INSS</t>
+  </si>
+  <si>
+    <t>Assistência médica</t>
+  </si>
+  <si>
+    <t>Despesa com serviços</t>
+  </si>
+  <si>
+    <t>Mão de obra</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Pró labore</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>IPVA</t>
+  </si>
+  <si>
+    <t>Transporte (VT)</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Aluguel imóvel</t>
+  </si>
+  <si>
+    <t>Despesa com produtos</t>
+  </si>
+  <si>
+    <t>Materiais de Consumo</t>
+  </si>
+  <si>
+    <t>Aviso prévio / Multa rescisória</t>
+  </si>
+  <si>
+    <t>Alimentação (VR VA)</t>
+  </si>
+  <si>
+    <t>Transporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF003576"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF003576"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1A1A1A"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF003576"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF3E5A74"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="7.0"/>
+      <sz val="7"/>
       <color rgb="FF3E5A74"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF003576"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1448,7 +1563,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1463,28 +1578,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
-    <border/>
+  <borders count="28">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1492,8 +1597,32 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1503,6 +1632,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1513,6 +1643,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1523,6 +1654,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1531,6 +1663,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1539,6 +1674,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1551,6 +1689,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1563,6 +1702,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1575,6 +1715,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1586,6 +1727,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1597,6 +1740,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1611,60 +1756,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1677,6 +1769,77 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1687,6 +1850,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1695,14 +1859,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1717,211 +1887,269 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="85">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="14" fillId="2" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="14" fillId="2" fontId="14" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="2" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="10" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="10" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="16" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="14" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="18" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="18" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2111,4106 +2339,5148 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I191" sqref="I191:J203"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.43"/>
-    <col customWidth="1" min="2" max="2" width="12.57"/>
-    <col customWidth="1" min="3" max="3" width="12.14"/>
-    <col customWidth="1" min="4" max="4" width="80.86"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="16.57"/>
-    <col customWidth="1" min="7" max="7" width="14.86"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="15.14"/>
-    <col customWidth="1" min="12" max="26" width="8.71"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="2" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="L2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6">
-        <v>1303.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="M3" s="3">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="19">
-        <v>45293.0</v>
-      </c>
-      <c r="C5" s="20">
-        <v>21619.0</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B5" s="16">
+        <v>45293</v>
+      </c>
+      <c r="C5" s="17">
+        <v>21619</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="22">
-        <v>260.0</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="K5" s="24">
-        <v>1.6902703E7</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="25">
-        <v>45294.0</v>
-      </c>
-      <c r="C6" s="26">
-        <v>237.0</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="G5" s="19">
+        <v>260</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="M5" s="21">
+        <v>16902703</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B6" s="22">
+        <v>45294</v>
+      </c>
+      <c r="C6" s="23">
+        <v>237</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="29">
-        <v>585.0</v>
-      </c>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="19">
-        <v>45296.0</v>
-      </c>
-      <c r="C7" s="30">
-        <v>51237.0</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="G6" s="26">
+        <v>585</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J6" s="77"/>
+    </row>
+    <row r="7" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B7" s="16">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="27">
+        <v>51237</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33">
-        <v>2145.47</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="19">
-        <v>45296.0</v>
-      </c>
-      <c r="C8" s="20">
-        <v>51244.0</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
+        <v>2145.4699999999998</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B8" s="16">
+        <v>45296</v>
+      </c>
+      <c r="C8" s="17">
+        <v>51244</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33">
+      <c r="G8" s="29"/>
+      <c r="H8" s="30">
         <v>822.25</v>
       </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="19">
-        <v>45296.0</v>
-      </c>
-      <c r="C9" s="20">
-        <v>51253.0</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="I8" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B9" s="16">
+        <v>45296</v>
+      </c>
+      <c r="C9" s="17">
+        <v>51253</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33">
+      <c r="G9" s="29"/>
+      <c r="H9" s="30">
         <v>1353.37</v>
       </c>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="19">
-        <v>45296.0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>51256.0</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="I9" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J9" s="78"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B10" s="16">
+        <v>45296</v>
+      </c>
+      <c r="C10" s="17">
+        <v>51256</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33">
+      <c r="G10" s="29"/>
+      <c r="H10" s="30">
         <v>1498.9</v>
       </c>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="19">
-        <v>45296.0</v>
-      </c>
-      <c r="C11" s="20">
-        <v>51303.0</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="I10" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J10" s="78"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B11" s="16">
+        <v>45296</v>
+      </c>
+      <c r="C11" s="17">
+        <v>51303</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33">
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
         <v>957.88</v>
       </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="19">
-        <v>45296.0</v>
-      </c>
-      <c r="C12" s="20">
-        <v>122023.0</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="I11" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B12" s="16">
+        <v>45296</v>
+      </c>
+      <c r="C12" s="17">
+        <v>122023</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="19">
-        <v>45299.0</v>
-      </c>
-      <c r="C13" s="20">
-        <v>81520.0</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="30">
+        <v>69</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" s="78"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B13" s="16">
+        <v>45299</v>
+      </c>
+      <c r="C13" s="17">
+        <v>81520</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="33">
+      <c r="G13" s="20"/>
+      <c r="H13" s="30">
         <v>4708.01</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="19">
-        <v>45299.0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>81524.0</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="I13" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J13" s="78"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B14" s="16">
+        <v>45299</v>
+      </c>
+      <c r="C14" s="17">
+        <v>81524</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="33">
+      <c r="G14" s="20"/>
+      <c r="H14" s="30">
         <v>427.3</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="25">
-        <v>45301.0</v>
-      </c>
-      <c r="C15" s="26">
-        <v>341.0</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="I14" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B15" s="22">
+        <v>45301</v>
+      </c>
+      <c r="C15" s="23">
+        <v>341</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="19">
         <v>7721.98</v>
       </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="19">
-        <v>45302.0</v>
-      </c>
-      <c r="C16" s="20">
-        <v>111426.0</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J15" s="77"/>
+    </row>
+    <row r="16" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B16" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C16" s="17">
+        <v>111426</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="33">
+      <c r="G16" s="20"/>
+      <c r="H16" s="30">
         <v>1464.66</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="19">
-        <v>45310.0</v>
-      </c>
-      <c r="C17" s="20">
-        <v>191504.0</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="I16" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J16" s="78"/>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B17" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C17" s="17">
+        <v>191504</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="33">
+      <c r="G17" s="20"/>
+      <c r="H17" s="30">
         <v>696.04</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="19">
-        <v>45310.0</v>
-      </c>
-      <c r="C18" s="20">
-        <v>191508.0</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="I17" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J17" s="78"/>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B18" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C18" s="17">
+        <v>191508</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="33">
+      <c r="G18" s="20"/>
+      <c r="H18" s="30">
         <v>84.58</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="19">
-        <v>45310.0</v>
-      </c>
-      <c r="C19" s="20">
-        <v>191512.0</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="I18" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J18" s="78"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B19" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C19" s="17">
+        <v>191512</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="33">
+      <c r="G19" s="20"/>
+      <c r="H19" s="30">
         <v>1519.47</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="19">
-        <v>45310.0</v>
-      </c>
-      <c r="C20" s="20">
-        <v>191516.0</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="I19" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J19" s="78"/>
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B20" s="16">
+        <v>45310</v>
+      </c>
+      <c r="C20" s="17">
+        <v>191516</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="33">
+      <c r="G20" s="20"/>
+      <c r="H20" s="30">
         <v>2767.23</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="19">
-        <v>45313.0</v>
-      </c>
-      <c r="C21" s="30">
-        <v>33.0</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="I20" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B21" s="16">
+        <v>45313</v>
+      </c>
+      <c r="C21" s="27">
+        <v>33</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="22">
-        <v>300.0</v>
-      </c>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="25">
-        <v>45313.0</v>
-      </c>
-      <c r="C22" s="26">
-        <v>341.0</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="G21" s="19">
+        <v>300</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B22" s="22">
+        <v>45313</v>
+      </c>
+      <c r="C22" s="23">
+        <v>341</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="19">
         <v>6273.75</v>
       </c>
-      <c r="H22" s="35"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="19">
-        <v>45322.0</v>
-      </c>
-      <c r="C23" s="30">
-        <v>290.0</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="23" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B23" s="16">
+        <v>45322</v>
+      </c>
+      <c r="C23" s="27">
+        <v>290</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="19">
         <v>2056.29</v>
       </c>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="38" t="s">
+      <c r="H23" s="32"/>
+      <c r="I23" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="J23" s="79"/>
+    </row>
+    <row r="24" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+    </row>
+    <row r="25" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B26" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="41" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+    </row>
+    <row r="27" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B27" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="47" t="s">
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+    </row>
+    <row r="28" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+      <c r="F28" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="19">
-        <v>45323.0</v>
-      </c>
-      <c r="C29" s="51">
-        <v>237.0</v>
-      </c>
-      <c r="D29" s="52" t="s">
+      <c r="G28" s="44"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+    </row>
+    <row r="29" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B29" s="16">
+        <v>45323</v>
+      </c>
+      <c r="C29" s="45">
+        <v>237</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="53">
-        <v>1000.0</v>
-      </c>
-      <c r="H29" s="35"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="19">
-        <v>45327.0</v>
-      </c>
-      <c r="C30" s="20">
-        <v>52153.0</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="G29" s="47">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J29" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B30" s="16">
+        <v>45327</v>
+      </c>
+      <c r="C30" s="17">
+        <v>52153</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33">
+      <c r="G30" s="29"/>
+      <c r="H30" s="30">
         <v>789.45</v>
       </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="19">
-        <v>45327.0</v>
-      </c>
-      <c r="C31" s="20">
-        <v>12024.0</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="I30" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J30" s="83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B31" s="16">
+        <v>45327</v>
+      </c>
+      <c r="C31" s="17">
+        <v>12024</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="19">
-        <v>45328.0</v>
-      </c>
-      <c r="C32" s="51">
-        <v>61117.0</v>
-      </c>
-      <c r="D32" s="35" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="30">
+        <v>69</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B32" s="16">
+        <v>45328</v>
+      </c>
+      <c r="C32" s="45">
+        <v>61117</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33">
+      <c r="G32" s="29"/>
+      <c r="H32" s="30">
         <v>2334.11</v>
       </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="19">
-        <v>45328.0</v>
-      </c>
-      <c r="C33" s="20">
-        <v>61124.0</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="I32" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J32" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B33" s="16">
+        <v>45328</v>
+      </c>
+      <c r="C33" s="17">
+        <v>61124</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33">
+      <c r="G33" s="29"/>
+      <c r="H33" s="30">
         <v>1519.17</v>
       </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="19">
-        <v>45328.0</v>
-      </c>
-      <c r="C34" s="20">
-        <v>61127.0</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="I33" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B34" s="16">
+        <v>45328</v>
+      </c>
+      <c r="C34" s="17">
+        <v>61127</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33">
+      <c r="G34" s="29"/>
+      <c r="H34" s="30">
         <v>1500.28</v>
       </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="19">
-        <v>45328.0</v>
-      </c>
-      <c r="C35" s="20">
-        <v>61131.0</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="I34" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J34" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B35" s="16">
+        <v>45328</v>
+      </c>
+      <c r="C35" s="17">
+        <v>61131</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33">
+      <c r="G35" s="29"/>
+      <c r="H35" s="30">
         <v>1604.67</v>
       </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="19">
-        <v>45328.0</v>
-      </c>
-      <c r="C36" s="20">
-        <v>61133.0</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="I35" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J35" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B36" s="16">
+        <v>45328</v>
+      </c>
+      <c r="C36" s="17">
+        <v>61133</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33">
+      <c r="G36" s="29"/>
+      <c r="H36" s="30">
         <v>1010.63</v>
       </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="19">
-        <v>45336.0</v>
-      </c>
-      <c r="C37" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="I36" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J36" s="83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B37" s="16">
+        <v>45336</v>
+      </c>
+      <c r="C37" s="45">
+        <v>341</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="54">
-        <v>400.0</v>
-      </c>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="19">
-        <v>45336.0</v>
-      </c>
-      <c r="C38" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D38" s="35" t="s">
+      <c r="G37" s="48">
+        <v>400</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J37" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B38" s="16">
+        <v>45336</v>
+      </c>
+      <c r="C38" s="45">
+        <v>341</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="47">
         <v>4037.37</v>
       </c>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="19">
-        <v>45337.0</v>
-      </c>
-      <c r="C39" s="20">
-        <v>151507.0</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="H38" s="20"/>
+      <c r="I38" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J38" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B39" s="16">
+        <v>45337</v>
+      </c>
+      <c r="C39" s="17">
+        <v>151507</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33">
+      <c r="G39" s="29"/>
+      <c r="H39" s="30">
         <v>1530.07</v>
       </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="19">
-        <v>45341.0</v>
-      </c>
-      <c r="C40" s="20">
-        <v>191426.0</v>
-      </c>
-      <c r="D40" s="20" t="s">
+      <c r="I39" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B40" s="16">
+        <v>45341</v>
+      </c>
+      <c r="C40" s="17">
+        <v>191426</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="53">
-        <v>150.0</v>
-      </c>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="19">
-        <v>45342.0</v>
-      </c>
-      <c r="C41" s="20">
-        <v>201529.0</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="G40" s="47">
+        <v>150</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J40" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B41" s="16">
+        <v>45342</v>
+      </c>
+      <c r="C41" s="17">
+        <v>201529</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33">
+      <c r="G41" s="29"/>
+      <c r="H41" s="30">
         <v>1858.81</v>
       </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="19">
-        <v>45342.0</v>
-      </c>
-      <c r="C42" s="20">
-        <v>201532.0</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="I41" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J41" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B42" s="16">
+        <v>45342</v>
+      </c>
+      <c r="C42" s="17">
+        <v>201532</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33">
+      <c r="G42" s="29"/>
+      <c r="H42" s="30">
         <v>1413.92</v>
       </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="19">
-        <v>45342.0</v>
-      </c>
-      <c r="C43" s="20">
-        <v>201535.0</v>
-      </c>
-      <c r="D43" s="20" t="s">
+      <c r="I42" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J42" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B43" s="16">
+        <v>45342</v>
+      </c>
+      <c r="C43" s="17">
+        <v>201535</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="19">
-        <v>45342.0</v>
-      </c>
-      <c r="C44" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D44" s="52" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="30">
+        <v>800</v>
+      </c>
+      <c r="I43" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B44" s="16">
+        <v>45342</v>
+      </c>
+      <c r="C44" s="45">
+        <v>341</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="53">
+      <c r="G44" s="47">
         <v>7061.32</v>
       </c>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="19">
-        <v>45342.0</v>
-      </c>
-      <c r="C45" s="20">
-        <v>201546.0</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="H44" s="20"/>
+      <c r="I44" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J44" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B45" s="16">
+        <v>45342</v>
+      </c>
+      <c r="C45" s="17">
+        <v>201546</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33">
+      <c r="G45" s="29"/>
+      <c r="H45" s="30">
         <v>5275.53</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="19">
-        <v>45343.0</v>
-      </c>
-      <c r="C46" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D46" s="52" t="s">
+      <c r="I45" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B46" s="16">
+        <v>45343</v>
+      </c>
+      <c r="C46" s="45">
+        <v>341</v>
+      </c>
+      <c r="D46" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="54">
-        <v>2255.0</v>
-      </c>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="19">
-        <v>45349.0</v>
-      </c>
-      <c r="C47" s="20">
-        <v>271523.0</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="G46" s="48">
+        <v>2255</v>
+      </c>
+      <c r="H46" s="33"/>
+      <c r="I46" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J46" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B47" s="16">
+        <v>45349</v>
+      </c>
+      <c r="C47" s="17">
+        <v>271523</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="53">
-        <v>280.0</v>
-      </c>
-      <c r="H47" s="35"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="19">
-        <v>45350.0</v>
-      </c>
-      <c r="C48" s="20">
-        <v>281606.0</v>
-      </c>
-      <c r="D48" s="20" t="s">
+      <c r="G47" s="47">
+        <v>280</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J47" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B48" s="16">
+        <v>45350</v>
+      </c>
+      <c r="C48" s="17">
+        <v>281606</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="53">
-        <v>215.0</v>
-      </c>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="1" t="s">
+      <c r="G48" s="47">
+        <v>215</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J48" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B51" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="7" t="s">
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+    </row>
+    <row r="52" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="13"/>
-      <c r="C53" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+    </row>
+    <row r="53" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F53" s="57" t="s">
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="19">
-        <v>45355.0</v>
-      </c>
-      <c r="C54" s="51">
-        <v>422.0</v>
-      </c>
-      <c r="D54" s="35" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+    </row>
+    <row r="54" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B54" s="16">
+        <v>45355</v>
+      </c>
+      <c r="C54" s="45">
+        <v>422</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="22">
-        <v>450.0</v>
-      </c>
-      <c r="H54" s="23"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="B55" s="19">
-        <v>45356.0</v>
-      </c>
-      <c r="C55" s="20">
-        <v>22024.0</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="G54" s="19">
+        <v>450</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J54" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B55" s="16">
+        <v>45356</v>
+      </c>
+      <c r="C55" s="17">
+        <v>22024</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="B56" s="19">
-        <v>45357.0</v>
-      </c>
-      <c r="C56" s="51">
-        <v>61206.0</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="G55" s="20"/>
+      <c r="H55" s="30">
+        <v>69</v>
+      </c>
+      <c r="I55" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B56" s="16">
+        <v>45357</v>
+      </c>
+      <c r="C56" s="45">
+        <v>61206</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="33">
-        <v>2409.51</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="B57" s="19">
-        <v>45357.0</v>
-      </c>
-      <c r="C57" s="51">
-        <v>290.0</v>
-      </c>
-      <c r="D57" s="35" t="s">
+      <c r="G56" s="20"/>
+      <c r="H56" s="30">
+        <v>2409.5100000000002</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B57" s="16">
+        <v>45357</v>
+      </c>
+      <c r="C57" s="45">
+        <v>290</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G57" s="22">
-        <v>483.0</v>
-      </c>
-      <c r="H57" s="23"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="19">
-        <v>45357.0</v>
-      </c>
-      <c r="C58" s="20">
-        <v>61518.0</v>
-      </c>
-      <c r="D58" s="20" t="s">
+      <c r="G57" s="19">
+        <v>483</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="81" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B58" s="16">
+        <v>45357</v>
+      </c>
+      <c r="C58" s="17">
+        <v>61518</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="33">
+      <c r="G58" s="20"/>
+      <c r="H58" s="30">
         <v>1503.47</v>
       </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="19">
-        <v>45357.0</v>
-      </c>
-      <c r="C59" s="20">
-        <v>61521.0</v>
-      </c>
-      <c r="D59" s="20" t="s">
+      <c r="I58" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J58" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B59" s="16">
+        <v>45357</v>
+      </c>
+      <c r="C59" s="17">
+        <v>61521</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="33">
+      <c r="G59" s="20"/>
+      <c r="H59" s="30">
         <v>632.24</v>
       </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="19">
-        <v>45357.0</v>
-      </c>
-      <c r="C60" s="20">
-        <v>61607.0</v>
-      </c>
-      <c r="D60" s="20" t="s">
+      <c r="I59" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B60" s="16">
+        <v>45357</v>
+      </c>
+      <c r="C60" s="17">
+        <v>61607</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="23"/>
-      <c r="H60" s="33">
-        <v>1301.87</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="19">
-        <v>45357.0</v>
-      </c>
-      <c r="C61" s="20">
-        <v>61611.0</v>
-      </c>
-      <c r="D61" s="20" t="s">
+      <c r="G60" s="20"/>
+      <c r="H60" s="30">
+        <v>1301.8699999999999</v>
+      </c>
+      <c r="I60" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B61" s="16">
+        <v>45357</v>
+      </c>
+      <c r="C61" s="17">
+        <v>61611</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="33">
+      <c r="G61" s="20"/>
+      <c r="H61" s="30">
         <v>893.24</v>
       </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="19">
-        <v>45362.0</v>
-      </c>
-      <c r="C62" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D62" s="20" t="s">
+      <c r="I61" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B62" s="16">
+        <v>45362</v>
+      </c>
+      <c r="C62" s="45">
+        <v>341</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="19">
         <v>10131.6</v>
       </c>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="19">
-        <v>45366.0</v>
-      </c>
-      <c r="C63" s="20">
-        <v>151710.0</v>
-      </c>
-      <c r="D63" s="20" t="s">
+      <c r="H62" s="20"/>
+      <c r="I62" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J62" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B63" s="16">
+        <v>45366</v>
+      </c>
+      <c r="C63" s="17">
+        <v>151710</v>
+      </c>
+      <c r="D63" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="33">
+      <c r="G63" s="20"/>
+      <c r="H63" s="30">
         <v>1069.79</v>
       </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="B64" s="19">
-        <v>45371.0</v>
-      </c>
-      <c r="C64" s="20">
-        <v>201511.0</v>
-      </c>
-      <c r="D64" s="20" t="s">
+      <c r="I63" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J63" s="83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B64" s="16">
+        <v>45371</v>
+      </c>
+      <c r="C64" s="17">
+        <v>201511</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="33">
+      <c r="G64" s="20"/>
+      <c r="H64" s="30">
         <v>2414.58</v>
       </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="19">
-        <v>45371.0</v>
-      </c>
-      <c r="C65" s="20">
-        <v>201514.0</v>
-      </c>
-      <c r="D65" s="20" t="s">
+      <c r="I64" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J64" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B65" s="16">
+        <v>45371</v>
+      </c>
+      <c r="C65" s="17">
+        <v>201514</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="33">
+      <c r="G65" s="20"/>
+      <c r="H65" s="30">
         <v>1298.23</v>
       </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="19">
-        <v>45371.0</v>
-      </c>
-      <c r="C66" s="20">
-        <v>201521.0</v>
-      </c>
-      <c r="D66" s="20" t="s">
+      <c r="I65" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J65" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B66" s="16">
+        <v>45371</v>
+      </c>
+      <c r="C66" s="17">
+        <v>201521</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="33">
+      <c r="G66" s="20"/>
+      <c r="H66" s="30">
         <v>2799.92</v>
       </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="19">
-        <v>45371.0</v>
-      </c>
-      <c r="C67" s="20">
-        <v>201552.0</v>
-      </c>
-      <c r="D67" s="20" t="s">
+      <c r="I66" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J66" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B67" s="16">
+        <v>45371</v>
+      </c>
+      <c r="C67" s="17">
+        <v>201552</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="33">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="B68" s="19">
-        <v>45371.0</v>
-      </c>
-      <c r="C68" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D68" s="52" t="s">
+      <c r="G67" s="20"/>
+      <c r="H67" s="30">
+        <v>800</v>
+      </c>
+      <c r="I67" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J67" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B68" s="16">
+        <v>45371</v>
+      </c>
+      <c r="C68" s="45">
+        <v>341</v>
+      </c>
+      <c r="D68" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="19">
         <v>3231.24</v>
       </c>
-      <c r="H68" s="35"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="B69" s="19">
-        <v>45376.0</v>
-      </c>
-      <c r="C69" s="51">
-        <v>33.0</v>
-      </c>
-      <c r="D69" s="52" t="s">
+      <c r="H68" s="32"/>
+      <c r="I68" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J68" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B69" s="16">
+        <v>45376</v>
+      </c>
+      <c r="C69" s="45">
+        <v>33</v>
+      </c>
+      <c r="D69" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G69" s="22">
-        <v>150.0</v>
-      </c>
-      <c r="H69" s="35"/>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="1" t="s">
+      <c r="G69" s="19">
+        <v>150</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J69" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+    </row>
+    <row r="71" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+    </row>
+    <row r="72" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B72" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="B73" s="7" t="s">
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+    </row>
+    <row r="73" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G73" s="45" t="s">
+      <c r="G73" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="B74" s="13"/>
-      <c r="C74" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D74" s="14" t="s">
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+    </row>
+    <row r="74" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11">
+        <v>0</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F74" s="60" t="s">
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="B75" s="19">
-        <v>45387.0</v>
-      </c>
-      <c r="C75" s="51">
-        <v>51257.0</v>
-      </c>
-      <c r="D75" s="35" t="s">
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+    </row>
+    <row r="75" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B75" s="16">
+        <v>45387</v>
+      </c>
+      <c r="C75" s="45">
+        <v>51257</v>
+      </c>
+      <c r="D75" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="G75" s="23"/>
-      <c r="H75" s="33">
+      <c r="G75" s="20"/>
+      <c r="H75" s="30">
         <v>2583.37</v>
       </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="B76" s="19">
-        <v>45387.0</v>
-      </c>
-      <c r="C76" s="20">
-        <v>32024.0</v>
-      </c>
-      <c r="D76" s="20" t="s">
+      <c r="I75" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J75" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B76" s="16">
+        <v>45387</v>
+      </c>
+      <c r="C76" s="17">
+        <v>32024</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G76" s="23"/>
-      <c r="H76" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="B77" s="19">
-        <v>45390.0</v>
-      </c>
-      <c r="C77" s="20">
-        <v>81454.0</v>
-      </c>
-      <c r="D77" s="20" t="s">
+      <c r="G76" s="20"/>
+      <c r="H76" s="30">
+        <v>69</v>
+      </c>
+      <c r="I76" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J76" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B77" s="16">
+        <v>45390</v>
+      </c>
+      <c r="C77" s="17">
+        <v>81454</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G77" s="23"/>
-      <c r="H77" s="33">
+      <c r="G77" s="20"/>
+      <c r="H77" s="30">
         <v>1678.01</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="B78" s="19">
-        <v>45390.0</v>
-      </c>
-      <c r="C78" s="20">
-        <v>81809.0</v>
-      </c>
-      <c r="D78" s="20" t="s">
+      <c r="I77" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J77" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B78" s="16">
+        <v>45390</v>
+      </c>
+      <c r="C78" s="17">
+        <v>81809</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="33">
-        <v>550.19</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="B79" s="19">
-        <v>45392.0</v>
-      </c>
-      <c r="C79" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D79" s="35" t="s">
+      <c r="G78" s="20"/>
+      <c r="H78" s="30">
+        <v>550.19000000000005</v>
+      </c>
+      <c r="I78" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J78" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B79" s="16">
+        <v>45392</v>
+      </c>
+      <c r="C79" s="45">
+        <v>341</v>
+      </c>
+      <c r="D79" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G79" s="22">
+      <c r="G79" s="19">
         <v>7455.25</v>
       </c>
-      <c r="H79" s="23"/>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="B80" s="19">
-        <v>45397.0</v>
-      </c>
-      <c r="C80" s="20">
-        <v>151109.0</v>
-      </c>
-      <c r="D80" s="20" t="s">
+      <c r="H79" s="20"/>
+      <c r="I79" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J79" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B80" s="16">
+        <v>45397</v>
+      </c>
+      <c r="C80" s="17">
+        <v>151109</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G80" s="23"/>
-      <c r="H80" s="33">
-        <v>2070.26</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="B81" s="19">
-        <v>45399.0</v>
-      </c>
-      <c r="C81" s="20">
-        <v>170102.0</v>
-      </c>
-      <c r="D81" s="20" t="s">
+      <c r="G80" s="20"/>
+      <c r="H80" s="30">
+        <v>2070.2600000000002</v>
+      </c>
+      <c r="I80" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J80" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B81" s="16">
+        <v>45399</v>
+      </c>
+      <c r="C81" s="17">
+        <v>170102</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G81" s="22">
-        <v>480.0</v>
-      </c>
-      <c r="H81" s="23"/>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="B82" s="19">
-        <v>45401.0</v>
-      </c>
-      <c r="C82" s="20">
-        <v>191217.0</v>
-      </c>
-      <c r="D82" s="20" t="s">
+      <c r="G81" s="19">
+        <v>480</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J81" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B82" s="16">
+        <v>45401</v>
+      </c>
+      <c r="C82" s="17">
+        <v>191217</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="G82" s="23"/>
-      <c r="H82" s="33">
+      <c r="G82" s="20"/>
+      <c r="H82" s="30">
         <v>838.88</v>
       </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="B83" s="19">
-        <v>45401.0</v>
-      </c>
-      <c r="C83" s="20">
-        <v>191228.0</v>
-      </c>
-      <c r="D83" s="20" t="s">
+      <c r="I82" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J82" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B83" s="16">
+        <v>45401</v>
+      </c>
+      <c r="C83" s="17">
+        <v>191228</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="33">
+      <c r="G83" s="20"/>
+      <c r="H83" s="30">
         <v>1477.01</v>
       </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="B84" s="19">
-        <v>45401.0</v>
-      </c>
-      <c r="C84" s="20">
-        <v>191744.0</v>
-      </c>
-      <c r="D84" s="20" t="s">
+      <c r="I83" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J83" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B84" s="16">
+        <v>45401</v>
+      </c>
+      <c r="C84" s="17">
+        <v>191744</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="33">
+      <c r="G84" s="20"/>
+      <c r="H84" s="30">
         <v>1830.73</v>
       </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="B85" s="19">
-        <v>45404.0</v>
-      </c>
-      <c r="C85" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D85" s="52" t="s">
+      <c r="I84" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J84" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B85" s="16">
+        <v>45404</v>
+      </c>
+      <c r="C85" s="45">
+        <v>341</v>
+      </c>
+      <c r="D85" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G85" s="22">
-        <v>4545.0</v>
-      </c>
-      <c r="H85" s="35"/>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="B88" s="1" t="s">
+      <c r="G85" s="19">
+        <v>4545</v>
+      </c>
+      <c r="H85" s="32"/>
+      <c r="I85" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J85" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+    </row>
+    <row r="87" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B88" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="B89" s="7" t="s">
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="58" t="s">
+      <c r="E89" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="59" t="s">
+      <c r="F89" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G89" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="B90" s="13"/>
-      <c r="C90" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D90" s="14" t="s">
+      <c r="I89" s="76"/>
+      <c r="J89" s="76"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B90" s="10"/>
+      <c r="C90" s="11">
+        <v>0</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F90" s="60" t="s">
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
+      <c r="F90" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="B91" s="19">
-        <v>45415.0</v>
-      </c>
-      <c r="C91" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D91" s="52" t="s">
+      <c r="G90" s="14"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B91" s="16">
+        <v>45415</v>
+      </c>
+      <c r="C91" s="45">
+        <v>341</v>
+      </c>
+      <c r="D91" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="G91" s="22">
+      <c r="G91" s="19">
         <v>1967.5</v>
       </c>
-      <c r="H91" s="23"/>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="B92" s="19">
-        <v>45418.0</v>
-      </c>
-      <c r="C92" s="20">
-        <v>61500.0</v>
-      </c>
-      <c r="D92" s="20" t="s">
+      <c r="H91" s="20"/>
+      <c r="I91" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J91" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B92" s="16">
+        <v>45418</v>
+      </c>
+      <c r="C92" s="17">
+        <v>61500</v>
+      </c>
+      <c r="D92" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="33">
-        <v>559.45</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="B93" s="19">
-        <v>45418.0</v>
-      </c>
-      <c r="C93" s="20">
-        <v>61722.0</v>
-      </c>
-      <c r="D93" s="20" t="s">
+      <c r="G92" s="20"/>
+      <c r="H92" s="30">
+        <v>559.45000000000005</v>
+      </c>
+      <c r="I92" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J92" s="83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B93" s="16">
+        <v>45418</v>
+      </c>
+      <c r="C93" s="17">
+        <v>61722</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F93" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="33">
-        <v>619.0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="B94" s="19">
-        <v>45418.0</v>
-      </c>
-      <c r="C94" s="20">
-        <v>42024.0</v>
-      </c>
-      <c r="D94" s="20" t="s">
+      <c r="G93" s="20"/>
+      <c r="H93" s="30">
+        <v>619</v>
+      </c>
+      <c r="I93" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J93" s="83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B94" s="16">
+        <v>45418</v>
+      </c>
+      <c r="C94" s="17">
+        <v>42024</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="B95" s="19">
-        <v>45419.0</v>
-      </c>
-      <c r="C95" s="20">
-        <v>71219.0</v>
-      </c>
-      <c r="D95" s="20" t="s">
+      <c r="G94" s="20"/>
+      <c r="H94" s="30">
+        <v>69</v>
+      </c>
+      <c r="I94" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J94" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B95" s="16">
+        <v>45419</v>
+      </c>
+      <c r="C95" s="17">
+        <v>71219</v>
+      </c>
+      <c r="D95" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G95" s="23"/>
-      <c r="H95" s="33">
+      <c r="G95" s="20"/>
+      <c r="H95" s="30">
         <v>1476.99</v>
       </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="B96" s="19">
-        <v>45419.0</v>
-      </c>
-      <c r="C96" s="20">
-        <v>71223.0</v>
-      </c>
-      <c r="D96" s="20" t="s">
+      <c r="I95" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J95" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B96" s="16">
+        <v>45419</v>
+      </c>
+      <c r="C96" s="17">
+        <v>71223</v>
+      </c>
+      <c r="D96" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="33">
-        <v>1058.62</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="B97" s="19">
-        <v>45419.0</v>
-      </c>
-      <c r="C97" s="20">
-        <v>71833.0</v>
-      </c>
-      <c r="D97" s="20" t="s">
+      <c r="G96" s="20"/>
+      <c r="H96" s="30">
+        <v>1058.6199999999999</v>
+      </c>
+      <c r="I96" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J96" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B97" s="16">
+        <v>45419</v>
+      </c>
+      <c r="C97" s="17">
+        <v>71833</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G97" s="23"/>
-      <c r="H97" s="33">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="B98" s="19">
-        <v>45422.0</v>
-      </c>
-      <c r="C98" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D98" s="35" t="s">
+      <c r="G97" s="20"/>
+      <c r="H97" s="30">
+        <v>800</v>
+      </c>
+      <c r="I97" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J97" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B98" s="16">
+        <v>45422</v>
+      </c>
+      <c r="C98" s="45">
+        <v>341</v>
+      </c>
+      <c r="D98" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="19">
         <v>12224.07</v>
       </c>
-      <c r="H98" s="23"/>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="B99" s="19">
-        <v>45425.0</v>
-      </c>
-      <c r="C99" s="20">
-        <v>131613.0</v>
-      </c>
-      <c r="D99" s="20" t="s">
+      <c r="H98" s="20"/>
+      <c r="I98" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J98" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B99" s="16">
+        <v>45425</v>
+      </c>
+      <c r="C99" s="17">
+        <v>131613</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="33">
+      <c r="G99" s="20"/>
+      <c r="H99" s="30">
         <v>214.88</v>
       </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C100" s="51">
-        <v>237.0</v>
-      </c>
-      <c r="D100" s="52" t="s">
+      <c r="I99" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J99" s="82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B100" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C100" s="45">
+        <v>237</v>
+      </c>
+      <c r="D100" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G100" s="22">
-        <v>1200.0</v>
-      </c>
-      <c r="H100" s="23"/>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="B101" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C101" s="20">
-        <v>151612.0</v>
-      </c>
-      <c r="D101" s="20" t="s">
+      <c r="G100" s="19">
+        <v>1200</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J100" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B101" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C101" s="17">
+        <v>151612</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="33">
+      <c r="G101" s="20"/>
+      <c r="H101" s="30">
         <v>1069.79</v>
       </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="B102" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C102" s="20">
-        <v>151608.0</v>
-      </c>
-      <c r="D102" s="20" t="s">
+      <c r="I101" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J101" s="83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B102" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C102" s="17">
+        <v>151608</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="G102" s="23"/>
-      <c r="H102" s="33">
+      <c r="G102" s="20"/>
+      <c r="H102" s="30">
         <v>3281.19</v>
       </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="B103" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C103" s="20">
-        <v>151616.0</v>
-      </c>
-      <c r="D103" s="20" t="s">
+      <c r="I102" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J102" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B103" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C103" s="17">
+        <v>151616</v>
+      </c>
+      <c r="D103" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F103" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="33">
+      <c r="G103" s="20"/>
+      <c r="H103" s="30">
         <v>1352.8</v>
       </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="B104" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C104" s="20">
-        <v>151618.0</v>
-      </c>
-      <c r="D104" s="20" t="s">
+      <c r="I103" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J103" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B104" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C104" s="17">
+        <v>151618</v>
+      </c>
+      <c r="D104" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F104" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G104" s="23"/>
-      <c r="H104" s="33">
+      <c r="G104" s="20"/>
+      <c r="H104" s="30">
         <v>1352.8</v>
       </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="B105" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C105" s="20">
-        <v>151622.0</v>
-      </c>
-      <c r="D105" s="20" t="s">
+      <c r="I104" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J104" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B105" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C105" s="17">
+        <v>151622</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G105" s="23"/>
-      <c r="H105" s="33">
-        <v>162.14</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="B106" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C106" s="20">
-        <v>151626.0</v>
-      </c>
-      <c r="D106" s="20" t="s">
+      <c r="G105" s="20"/>
+      <c r="H105" s="30">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="I105" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J105" s="83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B106" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C106" s="17">
+        <v>151626</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="G106" s="23"/>
-      <c r="H106" s="33">
+      <c r="G106" s="20"/>
+      <c r="H106" s="30">
         <v>55.82</v>
       </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="B107" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C107" s="20">
-        <v>151628.0</v>
-      </c>
-      <c r="D107" s="20" t="s">
+      <c r="I106" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J106" s="83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B107" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C107" s="17">
+        <v>151628</v>
+      </c>
+      <c r="D107" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="F107" s="21" t="s">
+      <c r="F107" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="33">
+      <c r="G107" s="20"/>
+      <c r="H107" s="30">
         <v>380.19</v>
       </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="B108" s="19">
-        <v>45427.0</v>
-      </c>
-      <c r="C108" s="20">
-        <v>151742.0</v>
-      </c>
-      <c r="D108" s="20" t="s">
+      <c r="I107" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J107" s="83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B108" s="16">
+        <v>45427</v>
+      </c>
+      <c r="C108" s="17">
+        <v>151742</v>
+      </c>
+      <c r="D108" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F108" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="G108" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="H108" s="23"/>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="B109" s="25">
-        <v>45428.0</v>
-      </c>
-      <c r="C109" s="61">
-        <v>161618.0</v>
-      </c>
-      <c r="D109" s="61" t="s">
+      <c r="G108" s="19">
+        <v>180</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J108" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B109" s="22">
+        <v>45428</v>
+      </c>
+      <c r="C109" s="55">
+        <v>161618</v>
+      </c>
+      <c r="D109" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="28" t="s">
+      <c r="E109" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="G109" s="22">
-        <v>90.0</v>
-      </c>
-      <c r="H109" s="23"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="B110" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C110" s="51">
-        <v>237.0</v>
-      </c>
-      <c r="D110" s="52" t="s">
+      <c r="G109" s="19">
+        <v>90</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J109" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B110" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C110" s="45">
+        <v>237</v>
+      </c>
+      <c r="D110" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G110" s="22">
-        <v>450.0</v>
-      </c>
-      <c r="H110" s="23"/>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="B111" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C111" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D111" s="27" t="s">
+      <c r="G110" s="19">
+        <v>450</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J110" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B111" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C111" s="45">
+        <v>341</v>
+      </c>
+      <c r="D111" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E111" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G111" s="22">
+      <c r="G111" s="19">
         <v>11993.6</v>
       </c>
-      <c r="H111" s="23"/>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="B112" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C112" s="20">
-        <v>201615.0</v>
-      </c>
-      <c r="D112" s="20" t="s">
+      <c r="H111" s="20"/>
+      <c r="I111" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J111" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B112" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C112" s="17">
+        <v>201615</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F112" s="21" t="s">
+      <c r="F112" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="G112" s="23"/>
-      <c r="H112" s="33">
+      <c r="G112" s="20"/>
+      <c r="H112" s="30">
         <v>838.88</v>
       </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="B113" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C113" s="20">
-        <v>201622.0</v>
-      </c>
-      <c r="D113" s="20" t="s">
+      <c r="I112" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J112" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B113" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C113" s="17">
+        <v>201622</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="33">
+      <c r="G113" s="20"/>
+      <c r="H113" s="30">
         <v>1492.23</v>
       </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="B114" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C114" s="20">
-        <v>201627.0</v>
-      </c>
-      <c r="D114" s="20" t="s">
+      <c r="I113" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J113" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B114" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C114" s="17">
+        <v>201627</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F114" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G114" s="23"/>
-      <c r="H114" s="33">
+      <c r="G114" s="20"/>
+      <c r="H114" s="30">
         <v>2598.44</v>
       </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="B115" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C115" s="20">
-        <v>201632.0</v>
-      </c>
-      <c r="D115" s="20" t="s">
+      <c r="I114" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J114" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B115" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C115" s="17">
+        <v>201632</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F115" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="33">
-        <v>1054.65</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="B116" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C116" s="20">
-        <v>201651.0</v>
-      </c>
-      <c r="D116" s="20" t="s">
+      <c r="G115" s="20"/>
+      <c r="H115" s="30">
+        <v>1054.6500000000001</v>
+      </c>
+      <c r="I115" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J115" s="83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B116" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C116" s="17">
+        <v>201651</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G116" s="23"/>
-      <c r="H116" s="33">
+      <c r="G116" s="20"/>
+      <c r="H116" s="30">
         <v>975.62</v>
       </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="B117" s="19">
-        <v>45432.0</v>
-      </c>
-      <c r="C117" s="20">
-        <v>201652.0</v>
-      </c>
-      <c r="D117" s="20" t="s">
+      <c r="I116" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J116" s="83" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B117" s="16">
+        <v>45432</v>
+      </c>
+      <c r="C117" s="17">
+        <v>201652</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G117" s="23"/>
-      <c r="H117" s="33">
+      <c r="G117" s="20"/>
+      <c r="H117" s="30">
         <v>113.84</v>
       </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="B118" s="19">
-        <v>45433.0</v>
-      </c>
-      <c r="C118" s="20">
-        <v>211607.0</v>
-      </c>
-      <c r="D118" s="20" t="s">
+      <c r="I117" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J117" s="83" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B118" s="16">
+        <v>45433</v>
+      </c>
+      <c r="C118" s="17">
+        <v>211607</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E118" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G118" s="22">
-        <v>380.0</v>
-      </c>
-      <c r="H118" s="23"/>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="62"/>
-      <c r="B119" s="19">
-        <v>45434.0</v>
-      </c>
-      <c r="C119" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D119" s="35" t="s">
+      <c r="G118" s="19">
+        <v>380</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J118" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A119" s="56"/>
+      <c r="B119" s="16">
+        <v>45434</v>
+      </c>
+      <c r="C119" s="45">
+        <v>341</v>
+      </c>
+      <c r="D119" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E119" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F119" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G119" s="22">
-        <v>3170.0</v>
-      </c>
-      <c r="H119" s="23"/>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="62"/>
-      <c r="B120" s="19">
-        <v>45439.0</v>
-      </c>
-      <c r="C120" s="51">
-        <v>422.0</v>
-      </c>
-      <c r="D120" s="35" t="s">
+      <c r="G119" s="19">
+        <v>3170</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J119" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A120" s="56"/>
+      <c r="B120" s="16">
+        <v>45439</v>
+      </c>
+      <c r="C120" s="45">
+        <v>422</v>
+      </c>
+      <c r="D120" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G120" s="22">
-        <v>110.0</v>
-      </c>
-      <c r="H120" s="23"/>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="B121" s="19">
-        <v>45439.0</v>
-      </c>
-      <c r="C121" s="51">
-        <v>271638.0</v>
-      </c>
-      <c r="D121" s="35" t="s">
+      <c r="G120" s="19">
+        <v>110</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J120" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B121" s="16">
+        <v>45439</v>
+      </c>
+      <c r="C121" s="45">
+        <v>271638</v>
+      </c>
+      <c r="D121" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="G121" s="22">
-        <v>280.0</v>
-      </c>
-      <c r="H121" s="23"/>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="B122" s="19">
-        <v>45440.0</v>
-      </c>
-      <c r="C122" s="51">
-        <v>281049.0</v>
-      </c>
-      <c r="D122" s="51" t="s">
+      <c r="G121" s="19">
+        <v>280</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J121" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B122" s="16">
+        <v>45440</v>
+      </c>
+      <c r="C122" s="45">
+        <v>281049</v>
+      </c>
+      <c r="D122" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E122" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="G122" s="22">
-        <v>100.0</v>
-      </c>
-      <c r="H122" s="23"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="B123" s="19">
-        <v>45441.0</v>
-      </c>
-      <c r="C123" s="20">
-        <v>291631.0</v>
-      </c>
-      <c r="D123" s="20" t="s">
+      <c r="G122" s="19">
+        <v>100</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J122" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B123" s="16">
+        <v>45441</v>
+      </c>
+      <c r="C123" s="17">
+        <v>291631</v>
+      </c>
+      <c r="D123" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="G123" s="22">
-        <v>40.0</v>
-      </c>
-      <c r="H123" s="23"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="B124" s="19">
-        <v>45443.0</v>
-      </c>
-      <c r="C124" s="20">
-        <v>311847.0</v>
-      </c>
-      <c r="D124" s="20" t="s">
+      <c r="G123" s="19">
+        <v>40</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J123" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B124" s="16">
+        <v>45443</v>
+      </c>
+      <c r="C124" s="17">
+        <v>311847</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F124" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="B125" s="19">
-        <v>45443.0</v>
-      </c>
-      <c r="C125" s="20">
-        <v>311851.0</v>
-      </c>
-      <c r="D125" s="20" t="s">
+      <c r="G124" s="30"/>
+      <c r="H124" s="30">
+        <v>240</v>
+      </c>
+      <c r="I124" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J124" s="83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B125" s="16">
+        <v>45443</v>
+      </c>
+      <c r="C125" s="17">
+        <v>311851</v>
+      </c>
+      <c r="D125" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F125" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33">
+      <c r="G125" s="30"/>
+      <c r="H125" s="30">
         <v>1352.8</v>
       </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="B126" s="19">
-        <v>45443.0</v>
-      </c>
-      <c r="C126" s="20">
-        <v>311853.0</v>
-      </c>
-      <c r="D126" s="20" t="s">
+      <c r="I125" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J125" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B126" s="16">
+        <v>45443</v>
+      </c>
+      <c r="C126" s="17">
+        <v>311853</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E126" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33">
+      <c r="G126" s="30"/>
+      <c r="H126" s="30">
         <v>1352.8</v>
       </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="1" t="s">
+      <c r="I126" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J126" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="79"/>
+      <c r="J127" s="79"/>
+    </row>
+    <row r="128" spans="1:10" ht="14.25" customHeight="1">
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="79"/>
+      <c r="J128" s="79"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B129" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="5"/>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="7" t="s">
+      <c r="C129" s="70"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="75"/>
+      <c r="J129" s="75"/>
+    </row>
+    <row r="130" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="58" t="s">
+      <c r="E130" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="59" t="s">
+      <c r="F130" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G130" s="45" t="s">
+      <c r="G130" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H130" s="12" t="s">
+      <c r="H130" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="13"/>
-      <c r="C131" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D131" s="14" t="s">
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
+    </row>
+    <row r="131" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B131" s="10"/>
+      <c r="C131" s="11">
+        <v>0</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F131" s="60" t="s">
+      <c r="E131" s="12">
+        <v>0</v>
+      </c>
+      <c r="F131" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="G131" s="17"/>
-      <c r="H131" s="18"/>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="19">
-        <v>45446.0</v>
-      </c>
-      <c r="C132" s="20">
-        <v>31523.0</v>
-      </c>
-      <c r="D132" s="20" t="s">
+      <c r="G131" s="14"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="77"/>
+      <c r="J131" s="77"/>
+    </row>
+    <row r="132" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B132" s="16">
+        <v>45446</v>
+      </c>
+      <c r="C132" s="17">
+        <v>31523</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F132" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G132" s="23"/>
-      <c r="H132" s="33">
+      <c r="G132" s="20"/>
+      <c r="H132" s="30">
         <v>376.66</v>
       </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="19">
-        <v>45446.0</v>
-      </c>
-      <c r="C133" s="20">
-        <v>31529.0</v>
-      </c>
-      <c r="D133" s="20" t="s">
+      <c r="I132" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J132" s="82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B133" s="16">
+        <v>45446</v>
+      </c>
+      <c r="C133" s="17">
+        <v>31529</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="E133" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="F133" s="21" t="s">
+      <c r="F133" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="G133" s="23"/>
-      <c r="H133" s="33">
+      <c r="G133" s="20"/>
+      <c r="H133" s="30">
         <v>211.24</v>
       </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="19">
-        <v>45448.0</v>
-      </c>
-      <c r="C134" s="20">
-        <v>51856.0</v>
-      </c>
-      <c r="D134" s="20" t="s">
+      <c r="I133" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J133" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B134" s="16">
+        <v>45448</v>
+      </c>
+      <c r="C134" s="17">
+        <v>51856</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="E134" s="31" t="s">
+      <c r="E134" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="F134" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="G134" s="23"/>
-      <c r="H134" s="33">
+      <c r="G134" s="20"/>
+      <c r="H134" s="30">
         <v>226.75</v>
       </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="19">
-        <v>45448.0</v>
-      </c>
-      <c r="C135" s="20">
-        <v>51859.0</v>
-      </c>
-      <c r="D135" s="20" t="s">
+      <c r="I134" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J134" s="83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B135" s="16">
+        <v>45448</v>
+      </c>
+      <c r="C135" s="17">
+        <v>51859</v>
+      </c>
+      <c r="D135" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E135" s="31" t="s">
+      <c r="E135" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F135" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G135" s="23"/>
-      <c r="H135" s="33">
-        <v>577.0</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="19">
-        <v>45448.0</v>
-      </c>
-      <c r="C136" s="20">
-        <v>51903.0</v>
-      </c>
-      <c r="D136" s="20" t="s">
+      <c r="G135" s="20"/>
+      <c r="H135" s="30">
+        <v>577</v>
+      </c>
+      <c r="I135" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J135" s="83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B136" s="16">
+        <v>45448</v>
+      </c>
+      <c r="C136" s="17">
+        <v>51903</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E136" s="31" t="s">
+      <c r="E136" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F136" s="21" t="s">
+      <c r="F136" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="G136" s="23"/>
-      <c r="H136" s="33">
-        <v>559.45</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="19">
-        <v>45448.0</v>
-      </c>
-      <c r="C137" s="20">
-        <v>52024.0</v>
-      </c>
-      <c r="D137" s="20" t="s">
+      <c r="G136" s="20"/>
+      <c r="H136" s="30">
+        <v>559.45000000000005</v>
+      </c>
+      <c r="I136" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J136" s="83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B137" s="16">
+        <v>45448</v>
+      </c>
+      <c r="C137" s="17">
+        <v>52024</v>
+      </c>
+      <c r="D137" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E137" s="31" t="s">
+      <c r="E137" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F137" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="G137" s="23"/>
-      <c r="H137" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="19">
-        <v>45449.0</v>
-      </c>
-      <c r="C138" s="20">
-        <v>61200.0</v>
-      </c>
-      <c r="D138" s="20" t="s">
+      <c r="G137" s="20"/>
+      <c r="H137" s="30">
+        <v>69</v>
+      </c>
+      <c r="I137" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J137" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B138" s="16">
+        <v>45449</v>
+      </c>
+      <c r="C138" s="17">
+        <v>61200</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="33">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="19">
-        <v>45449.0</v>
-      </c>
-      <c r="C139" s="51">
-        <v>61223.0</v>
-      </c>
-      <c r="D139" s="35" t="s">
+      <c r="G138" s="20"/>
+      <c r="H138" s="30">
+        <v>240</v>
+      </c>
+      <c r="I138" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J138" s="83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B139" s="16">
+        <v>45449</v>
+      </c>
+      <c r="C139" s="45">
+        <v>61223</v>
+      </c>
+      <c r="D139" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="F139" s="21" t="s">
+      <c r="F139" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="33">
+      <c r="G139" s="20"/>
+      <c r="H139" s="30">
         <v>2436.31</v>
       </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="B140" s="19">
-        <v>45449.0</v>
-      </c>
-      <c r="C140" s="20">
-        <v>61237.0</v>
-      </c>
-      <c r="D140" s="20" t="s">
+      <c r="I139" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J139" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B140" s="16">
+        <v>45449</v>
+      </c>
+      <c r="C140" s="17">
+        <v>61237</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E140" s="31" t="s">
+      <c r="E140" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="F140" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="33">
+      <c r="G140" s="20"/>
+      <c r="H140" s="30">
         <v>1561.73</v>
       </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="B141" s="19">
-        <v>45449.0</v>
-      </c>
-      <c r="C141" s="20">
-        <v>61240.0</v>
-      </c>
-      <c r="D141" s="20" t="s">
+      <c r="I140" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J140" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B141" s="16">
+        <v>45449</v>
+      </c>
+      <c r="C141" s="17">
+        <v>61240</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E141" s="31" t="s">
+      <c r="E141" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="G141" s="23"/>
-      <c r="H141" s="33">
+      <c r="G141" s="20"/>
+      <c r="H141" s="30">
         <v>1465.32</v>
       </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="B142" s="19">
-        <v>45449.0</v>
-      </c>
-      <c r="C142" s="20">
-        <v>61243.0</v>
-      </c>
-      <c r="D142" s="20" t="s">
+      <c r="I141" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J141" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B142" s="16">
+        <v>45449</v>
+      </c>
+      <c r="C142" s="17">
+        <v>61243</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E142" s="31" t="s">
+      <c r="E142" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="F142" s="21" t="s">
+      <c r="F142" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="G142" s="23"/>
-      <c r="H142" s="33">
+      <c r="G142" s="20"/>
+      <c r="H142" s="30">
         <v>1642.34</v>
       </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="B143" s="19">
-        <v>45450.0</v>
-      </c>
-      <c r="C143" s="20">
-        <v>71531.0</v>
-      </c>
-      <c r="D143" s="20" t="s">
+      <c r="I142" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J142" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B143" s="16">
+        <v>45450</v>
+      </c>
+      <c r="C143" s="17">
+        <v>71531</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="E143" s="31" t="s">
+      <c r="E143" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F143" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="G143" s="23"/>
-      <c r="H143" s="33">
-        <v>550.19</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="B144" s="19">
-        <v>45453.0</v>
-      </c>
-      <c r="C144" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D144" s="35" t="s">
+      <c r="G143" s="20"/>
+      <c r="H143" s="30">
+        <v>550.19000000000005</v>
+      </c>
+      <c r="I143" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J143" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B144" s="16">
+        <v>45453</v>
+      </c>
+      <c r="C144" s="45">
+        <v>341</v>
+      </c>
+      <c r="D144" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E144" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="F144" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G144" s="22">
+      <c r="G144" s="19">
         <v>7704.82</v>
       </c>
-      <c r="H144" s="33"/>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="B145" s="19">
-        <v>45453.0</v>
-      </c>
-      <c r="C145" s="20">
-        <v>101029.0</v>
-      </c>
-      <c r="D145" s="20" t="s">
+      <c r="H144" s="30"/>
+      <c r="I144" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J144" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B145" s="16">
+        <v>45453</v>
+      </c>
+      <c r="C145" s="17">
+        <v>101029</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E145" s="31" t="s">
+      <c r="E145" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="F145" s="21" t="s">
+      <c r="F145" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="G145" s="23"/>
-      <c r="H145" s="33">
+      <c r="G145" s="20"/>
+      <c r="H145" s="30">
         <v>4993.82</v>
       </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="B146" s="19">
-        <v>45453.0</v>
-      </c>
-      <c r="C146" s="20">
-        <v>101033.0</v>
-      </c>
-      <c r="D146" s="20" t="s">
+      <c r="I145" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J145" s="83" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B146" s="16">
+        <v>45453</v>
+      </c>
+      <c r="C146" s="17">
+        <v>101033</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="E146" s="31" t="s">
+      <c r="E146" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F146" s="34" t="s">
+      <c r="F146" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="G146" s="23"/>
-      <c r="H146" s="33">
+      <c r="G146" s="20"/>
+      <c r="H146" s="30">
         <v>48.42</v>
       </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="B147" s="19">
-        <v>45453.0</v>
-      </c>
-      <c r="C147" s="20">
-        <v>101036.0</v>
-      </c>
-      <c r="D147" s="20" t="s">
+      <c r="I146" s="81" t="s">
+        <v>461</v>
+      </c>
+      <c r="J146" s="83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B147" s="16">
+        <v>45453</v>
+      </c>
+      <c r="C147" s="17">
+        <v>101036</v>
+      </c>
+      <c r="D147" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E147" s="31" t="s">
+      <c r="E147" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="F147" s="34" t="s">
+      <c r="F147" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G147" s="23"/>
-      <c r="H147" s="33">
-        <v>311.22</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="B148" s="19">
-        <v>45457.0</v>
-      </c>
-      <c r="C148" s="20">
-        <v>141953.0</v>
-      </c>
-      <c r="D148" s="20" t="s">
+      <c r="G147" s="20"/>
+      <c r="H147" s="30">
+        <v>311.22000000000003</v>
+      </c>
+      <c r="I147" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J147" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B148" s="16">
+        <v>45457</v>
+      </c>
+      <c r="C148" s="17">
+        <v>141953</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E148" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F148" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="G148" s="23"/>
-      <c r="H148" s="33">
+      <c r="G148" s="20"/>
+      <c r="H148" s="30">
         <v>2469.02</v>
       </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="B149" s="19">
-        <v>45463.0</v>
-      </c>
-      <c r="C149" s="20">
-        <v>201129.0</v>
-      </c>
-      <c r="D149" s="20" t="s">
+      <c r="I148" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J148" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B149" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C149" s="17">
+        <v>201129</v>
+      </c>
+      <c r="D149" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="E149" s="31" t="s">
+      <c r="E149" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F149" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="33">
+      <c r="G149" s="20"/>
+      <c r="H149" s="30">
         <v>1074.45</v>
       </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="B150" s="19">
-        <v>45463.0</v>
-      </c>
-      <c r="C150" s="20">
-        <v>201137.0</v>
-      </c>
-      <c r="D150" s="20" t="s">
+      <c r="I149" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J149" s="83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B150" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C150" s="17">
+        <v>201137</v>
+      </c>
+      <c r="D150" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E150" s="31" t="s">
+      <c r="E150" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="F150" s="21" t="s">
+      <c r="F150" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="33">
+      <c r="G150" s="20"/>
+      <c r="H150" s="30">
         <v>2683.2</v>
       </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="B151" s="19">
-        <v>45463.0</v>
-      </c>
-      <c r="C151" s="20">
-        <v>201141.0</v>
-      </c>
-      <c r="D151" s="20" t="s">
+      <c r="I150" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J150" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B151" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C151" s="17">
+        <v>201141</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E151" s="31" t="s">
+      <c r="E151" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F151" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="G151" s="23"/>
-      <c r="H151" s="33">
+      <c r="G151" s="20"/>
+      <c r="H151" s="30">
         <v>1485.73</v>
       </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="B152" s="19">
-        <v>45463.0</v>
-      </c>
-      <c r="C152" s="20">
-        <v>201205.0</v>
-      </c>
-      <c r="D152" s="20" t="s">
+      <c r="I151" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J151" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B152" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C152" s="17">
+        <v>201205</v>
+      </c>
+      <c r="D152" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E152" s="31" t="s">
+      <c r="E152" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="F152" s="21" t="s">
+      <c r="F152" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="G152" s="23"/>
-      <c r="H152" s="33">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="B153" s="19">
-        <v>45463.0</v>
-      </c>
-      <c r="C153" s="20">
-        <v>201209.0</v>
-      </c>
-      <c r="D153" s="20" t="s">
+      <c r="G152" s="20"/>
+      <c r="H152" s="30">
+        <v>150</v>
+      </c>
+      <c r="I152" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J152" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B153" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C153" s="17">
+        <v>201209</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E153" s="31" t="s">
+      <c r="E153" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F153" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="G153" s="23"/>
-      <c r="H153" s="33">
+      <c r="G153" s="20"/>
+      <c r="H153" s="30">
         <v>428.12</v>
       </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="B154" s="19">
-        <v>45463.0</v>
-      </c>
-      <c r="C154" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D154" s="35" t="s">
+      <c r="I153" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J153" s="82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B154" s="16">
+        <v>45463</v>
+      </c>
+      <c r="C154" s="45">
+        <v>341</v>
+      </c>
+      <c r="D154" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="F154" s="63" t="s">
+      <c r="F154" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="G154" s="22">
+      <c r="G154" s="19">
         <v>5255.16</v>
       </c>
-      <c r="H154" s="23"/>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="B155" s="19">
-        <v>45464.0</v>
-      </c>
-      <c r="C155" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D155" s="35" t="s">
+      <c r="H154" s="20"/>
+      <c r="I154" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J154" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B155" s="16">
+        <v>45464</v>
+      </c>
+      <c r="C155" s="45">
+        <v>341</v>
+      </c>
+      <c r="D155" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F155" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="G155" s="22">
-        <v>1365.0</v>
-      </c>
-      <c r="H155" s="23"/>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="B156" s="19">
-        <v>45469.0</v>
-      </c>
-      <c r="C156" s="20">
-        <v>260927.0</v>
-      </c>
-      <c r="D156" s="20" t="s">
+      <c r="G155" s="19">
+        <v>1365</v>
+      </c>
+      <c r="H155" s="20"/>
+      <c r="I155" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J155" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B156" s="16">
+        <v>45469</v>
+      </c>
+      <c r="C156" s="17">
+        <v>260927</v>
+      </c>
+      <c r="D156" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="E156" s="31" t="s">
+      <c r="E156" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="F156" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="G156" s="23"/>
-      <c r="H156" s="33">
+      <c r="G156" s="20"/>
+      <c r="H156" s="30">
         <v>2723.07</v>
       </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="B157" s="19">
-        <v>45470.0</v>
-      </c>
-      <c r="C157" s="20">
-        <v>270403.0</v>
-      </c>
-      <c r="D157" s="20" t="s">
+      <c r="I156" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J156" s="83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B157" s="16">
+        <v>45470</v>
+      </c>
+      <c r="C157" s="17">
+        <v>270403</v>
+      </c>
+      <c r="D157" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="F157" s="21" t="s">
+      <c r="F157" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="G157" s="22">
-        <v>1100.0</v>
-      </c>
-      <c r="H157" s="35"/>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="B158" s="35"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="35"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="B159" s="35"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="B160" s="1" t="s">
+      <c r="G157" s="19">
+        <v>1100</v>
+      </c>
+      <c r="H157" s="32"/>
+      <c r="I157" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J157" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="79"/>
+      <c r="J158" s="79"/>
+    </row>
+    <row r="159" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="79"/>
+      <c r="J159" s="79"/>
+    </row>
+    <row r="160" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B160" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="5"/>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="B161" s="7" t="s">
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="71"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
+    </row>
+    <row r="161" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="58" t="s">
+      <c r="E161" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F161" s="59" t="s">
+      <c r="F161" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G161" s="45" t="s">
+      <c r="G161" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H161" s="12" t="s">
+      <c r="H161" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="B162" s="13"/>
-      <c r="C162" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D162" s="14" t="s">
+      <c r="I161" s="76"/>
+      <c r="J161" s="76"/>
+    </row>
+    <row r="162" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B162" s="10"/>
+      <c r="C162" s="11">
+        <v>0</v>
+      </c>
+      <c r="D162" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F162" s="60" t="s">
+      <c r="E162" s="12">
+        <v>0</v>
+      </c>
+      <c r="F162" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="G162" s="17"/>
-      <c r="H162" s="18"/>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="B163" s="19">
-        <v>45474.0</v>
-      </c>
-      <c r="C163" s="20">
-        <v>11407.0</v>
-      </c>
-      <c r="D163" s="20" t="s">
+      <c r="G162" s="14"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="77"/>
+      <c r="J162" s="77"/>
+    </row>
+    <row r="163" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B163" s="16">
+        <v>45474</v>
+      </c>
+      <c r="C163" s="17">
+        <v>11407</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="F163" s="21" t="s">
+      <c r="F163" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="G163" s="22">
+      <c r="G163" s="19">
         <v>1428.33</v>
       </c>
-      <c r="H163" s="35"/>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="B164" s="19">
-        <v>45476.0</v>
-      </c>
-      <c r="C164" s="20">
-        <v>31134.0</v>
-      </c>
-      <c r="D164" s="20" t="s">
+      <c r="H163" s="32"/>
+      <c r="I163" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J163" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B164" s="16">
+        <v>45476</v>
+      </c>
+      <c r="C164" s="17">
+        <v>31134</v>
+      </c>
+      <c r="D164" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E164" s="31" t="s">
+      <c r="E164" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F164" s="21" t="s">
+      <c r="F164" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="G164" s="23"/>
-      <c r="H164" s="33">
+      <c r="G164" s="20"/>
+      <c r="H164" s="30">
         <v>657.14</v>
       </c>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="B165" s="19">
-        <v>45476.0</v>
-      </c>
-      <c r="C165" s="20">
-        <v>31627.0</v>
-      </c>
-      <c r="D165" s="20" t="s">
+      <c r="I164" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J164" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B165" s="16">
+        <v>45476</v>
+      </c>
+      <c r="C165" s="17">
+        <v>31627</v>
+      </c>
+      <c r="D165" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E165" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="F165" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="G165" s="22">
-        <v>1250.0</v>
-      </c>
-      <c r="H165" s="23"/>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="B166" s="19">
-        <v>45478.0</v>
-      </c>
-      <c r="C166" s="51">
-        <v>51134.0</v>
-      </c>
-      <c r="D166" s="35" t="s">
+      <c r="G165" s="19">
+        <v>1250</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J165" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B166" s="16">
+        <v>45478</v>
+      </c>
+      <c r="C166" s="45">
+        <v>51134</v>
+      </c>
+      <c r="D166" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="E166" s="31" t="s">
+      <c r="E166" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="F166" s="21" t="s">
+      <c r="F166" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="G166" s="23"/>
-      <c r="H166" s="33">
+      <c r="G166" s="20"/>
+      <c r="H166" s="30">
         <v>2806.33</v>
       </c>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="B167" s="19">
-        <v>45478.0</v>
-      </c>
-      <c r="C167" s="20">
-        <v>51139.0</v>
-      </c>
-      <c r="D167" s="20" t="s">
+      <c r="I166" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J166" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B167" s="16">
+        <v>45478</v>
+      </c>
+      <c r="C167" s="17">
+        <v>51139</v>
+      </c>
+      <c r="D167" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="31" t="s">
+      <c r="E167" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="F167" s="21" t="s">
+      <c r="F167" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="G167" s="23"/>
-      <c r="H167" s="33">
+      <c r="G167" s="20"/>
+      <c r="H167" s="30">
         <v>1676.89</v>
       </c>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="B168" s="19">
-        <v>45478.0</v>
-      </c>
-      <c r="C168" s="20">
-        <v>51141.0</v>
-      </c>
-      <c r="D168" s="20" t="s">
+      <c r="I167" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J167" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B168" s="16">
+        <v>45478</v>
+      </c>
+      <c r="C168" s="17">
+        <v>51141</v>
+      </c>
+      <c r="D168" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E168" s="31" t="s">
+      <c r="E168" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="F168" s="21" t="s">
+      <c r="F168" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="G168" s="23"/>
-      <c r="H168" s="33">
+      <c r="G168" s="20"/>
+      <c r="H168" s="30">
         <v>1625.1</v>
       </c>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="B169" s="25">
-        <v>45478.0</v>
-      </c>
-      <c r="C169" s="61">
-        <v>51144.0</v>
-      </c>
-      <c r="D169" s="61" t="s">
+      <c r="I168" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J168" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B169" s="22">
+        <v>45478</v>
+      </c>
+      <c r="C169" s="55">
+        <v>51144</v>
+      </c>
+      <c r="D169" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="E169" s="64" t="s">
+      <c r="E169" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="F169" s="28" t="s">
+      <c r="F169" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="G169" s="23"/>
-      <c r="H169" s="33">
-        <v>559.45</v>
-      </c>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="B170" s="65">
-        <v>45478.0</v>
-      </c>
-      <c r="C170" s="66">
-        <v>62024.0</v>
-      </c>
-      <c r="D170" s="66" t="s">
+      <c r="G169" s="20"/>
+      <c r="H169" s="30">
+        <v>559.45000000000005</v>
+      </c>
+      <c r="I169" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J169" s="83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B170" s="59">
+        <v>45478</v>
+      </c>
+      <c r="C170" s="60">
+        <v>62024</v>
+      </c>
+      <c r="D170" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E170" s="67" t="s">
+      <c r="E170" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F170" s="68" t="s">
+      <c r="F170" s="62" t="s">
         <v>366</v>
       </c>
-      <c r="G170" s="32"/>
-      <c r="H170" s="69">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="B171" s="70">
-        <v>45483.0</v>
-      </c>
-      <c r="C171" s="71">
-        <v>341.0</v>
-      </c>
-      <c r="D171" s="72" t="s">
+      <c r="G170" s="29"/>
+      <c r="H170" s="63">
+        <v>69</v>
+      </c>
+      <c r="I170" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J170" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B171" s="64">
+        <v>45483</v>
+      </c>
+      <c r="C171" s="65">
+        <v>341</v>
+      </c>
+      <c r="D171" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="E171" s="73" t="s">
+      <c r="E171" s="67" t="s">
         <v>368</v>
       </c>
-      <c r="F171" s="73" t="s">
+      <c r="F171" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="G171" s="74">
+      <c r="G171" s="68">
         <v>6578.72</v>
       </c>
-      <c r="H171" s="23"/>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="B172" s="19">
-        <v>45485.0</v>
-      </c>
-      <c r="C172" s="20">
-        <v>121711.0</v>
-      </c>
-      <c r="D172" s="20" t="s">
+      <c r="H171" s="20"/>
+      <c r="I171" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J171" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B172" s="16">
+        <v>45485</v>
+      </c>
+      <c r="C172" s="17">
+        <v>121711</v>
+      </c>
+      <c r="D172" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F172" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="G172" s="22">
-        <v>360.0</v>
-      </c>
-      <c r="H172" s="23"/>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="B173" s="19">
-        <v>45488.0</v>
-      </c>
-      <c r="C173" s="20">
-        <v>150437.0</v>
-      </c>
-      <c r="D173" s="20" t="s">
+      <c r="G172" s="19">
+        <v>360</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J172" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B173" s="16">
+        <v>45488</v>
+      </c>
+      <c r="C173" s="17">
+        <v>150437</v>
+      </c>
+      <c r="D173" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="F173" s="34" t="s">
+      <c r="F173" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="G173" s="22">
-        <v>750.0</v>
-      </c>
-      <c r="H173" s="23"/>
-    </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="B174" s="19">
-        <v>45488.0</v>
-      </c>
-      <c r="C174" s="20">
-        <v>151226.0</v>
-      </c>
-      <c r="D174" s="20" t="s">
+      <c r="G173" s="19">
+        <v>750</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J173" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B174" s="16">
+        <v>45488</v>
+      </c>
+      <c r="C174" s="17">
+        <v>151226</v>
+      </c>
+      <c r="D174" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E174" s="31" t="s">
+      <c r="E174" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="G174" s="23"/>
-      <c r="H174" s="33">
+      <c r="G174" s="20"/>
+      <c r="H174" s="30">
         <v>2646.03</v>
       </c>
-    </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="B175" s="19">
-        <v>45488.0</v>
-      </c>
-      <c r="C175" s="20">
-        <v>151228.0</v>
-      </c>
-      <c r="D175" s="20" t="s">
+      <c r="I174" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J174" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B175" s="16">
+        <v>45488</v>
+      </c>
+      <c r="C175" s="17">
+        <v>151228</v>
+      </c>
+      <c r="D175" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="E175" s="31" t="s">
+      <c r="E175" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="F175" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="G175" s="23"/>
-      <c r="H175" s="33">
+      <c r="G175" s="20"/>
+      <c r="H175" s="30">
         <v>1352.8</v>
       </c>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="B176" s="19">
-        <v>45490.0</v>
-      </c>
-      <c r="C176" s="20">
-        <v>171443.0</v>
-      </c>
-      <c r="D176" s="20" t="s">
+      <c r="I175" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J175" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B176" s="16">
+        <v>45490</v>
+      </c>
+      <c r="C176" s="17">
+        <v>171443</v>
+      </c>
+      <c r="D176" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E176" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F176" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="G176" s="22">
-        <v>760.0</v>
-      </c>
-      <c r="H176" s="23"/>
-    </row>
-    <row r="177" ht="14.25" customHeight="1">
-      <c r="B177" s="19">
-        <v>45492.0</v>
-      </c>
-      <c r="C177" s="20">
-        <v>191518.0</v>
-      </c>
-      <c r="D177" s="20" t="s">
+      <c r="G176" s="19">
+        <v>760</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J176" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B177" s="16">
+        <v>45492</v>
+      </c>
+      <c r="C177" s="17">
+        <v>191518</v>
+      </c>
+      <c r="D177" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="E177" s="31" t="s">
+      <c r="E177" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="F177" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="G177" s="23"/>
-      <c r="H177" s="33">
+      <c r="G177" s="20"/>
+      <c r="H177" s="30">
         <v>1019.84</v>
       </c>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
-      <c r="B178" s="19">
-        <v>45492.0</v>
-      </c>
-      <c r="C178" s="20">
-        <v>191525.0</v>
-      </c>
-      <c r="D178" s="20" t="s">
+      <c r="I177" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J177" s="83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B178" s="16">
+        <v>45492</v>
+      </c>
+      <c r="C178" s="17">
+        <v>191525</v>
+      </c>
+      <c r="D178" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E178" s="31" t="s">
+      <c r="E178" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="33">
+      <c r="G178" s="20"/>
+      <c r="H178" s="30">
         <v>1464.58</v>
       </c>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="B179" s="19">
-        <v>45492.0</v>
-      </c>
-      <c r="C179" s="20">
-        <v>191529.0</v>
-      </c>
-      <c r="D179" s="20" t="s">
+      <c r="I178" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="J178" s="84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B179" s="16">
+        <v>45492</v>
+      </c>
+      <c r="C179" s="17">
+        <v>191529</v>
+      </c>
+      <c r="D179" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E179" s="31" t="s">
+      <c r="E179" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F179" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="G179" s="23"/>
-      <c r="H179" s="33">
+      <c r="G179" s="20"/>
+      <c r="H179" s="30">
         <v>2131.88</v>
       </c>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
-      <c r="B180" s="19">
-        <v>45495.0</v>
-      </c>
-      <c r="C180" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D180" s="35" t="s">
+      <c r="I179" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J179" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B180" s="16">
+        <v>45495</v>
+      </c>
+      <c r="C180" s="45">
+        <v>341</v>
+      </c>
+      <c r="D180" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="F180" s="21" t="s">
+      <c r="F180" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="G180" s="22">
+      <c r="G180" s="19">
         <v>7481.22</v>
       </c>
-      <c r="H180" s="23"/>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="B181" s="19">
-        <v>45495.0</v>
-      </c>
-      <c r="C181" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D181" s="35" t="s">
+      <c r="H180" s="20"/>
+      <c r="I180" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J180" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B181" s="16">
+        <v>45495</v>
+      </c>
+      <c r="C181" s="45">
+        <v>341</v>
+      </c>
+      <c r="D181" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="E181" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F181" s="21" t="s">
+      <c r="F181" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="G181" s="22">
+      <c r="G181" s="19">
         <v>2082.27</v>
       </c>
-      <c r="H181" s="23"/>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
-      <c r="B182" s="19">
-        <v>45498.0</v>
-      </c>
-      <c r="C182" s="20">
-        <v>251943.0</v>
-      </c>
-      <c r="D182" s="20" t="s">
+      <c r="H181" s="20"/>
+      <c r="I181" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J181" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B182" s="16">
+        <v>45498</v>
+      </c>
+      <c r="C182" s="17">
+        <v>251943</v>
+      </c>
+      <c r="D182" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="E182" s="31" t="s">
+      <c r="E182" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F182" s="21" t="s">
+      <c r="F182" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="G182" s="23"/>
-      <c r="H182" s="33">
+      <c r="G182" s="20"/>
+      <c r="H182" s="30">
         <v>1352.8</v>
       </c>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="B183" s="19">
-        <v>45499.0</v>
-      </c>
-      <c r="C183" s="20">
-        <v>261713.0</v>
-      </c>
-      <c r="D183" s="20" t="s">
+      <c r="I182" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J182" s="83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B183" s="16">
+        <v>45499</v>
+      </c>
+      <c r="C183" s="17">
+        <v>261713</v>
+      </c>
+      <c r="D183" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E183" s="31" t="s">
+      <c r="E183" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="F183" s="21" t="s">
+      <c r="F183" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G183" s="23"/>
-      <c r="H183" s="33">
+      <c r="G183" s="20"/>
+      <c r="H183" s="30">
         <v>426.81</v>
       </c>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="B184" s="19">
-        <v>45502.0</v>
-      </c>
-      <c r="C184" s="20">
-        <v>291525.0</v>
-      </c>
-      <c r="D184" s="20" t="s">
+      <c r="I183" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J183" s="83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B184" s="16">
+        <v>45502</v>
+      </c>
+      <c r="C184" s="17">
+        <v>291525</v>
+      </c>
+      <c r="D184" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E184" s="21" t="s">
+      <c r="E184" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="F184" s="21" t="s">
+      <c r="F184" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="G184" s="22">
-        <v>180.0</v>
-      </c>
-      <c r="H184" s="35"/>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
-      <c r="B185" s="19">
-        <v>45503.0</v>
-      </c>
-      <c r="C185" s="20">
-        <v>301511.0</v>
-      </c>
-      <c r="D185" s="20" t="s">
+      <c r="G184" s="19">
+        <v>180</v>
+      </c>
+      <c r="H184" s="32"/>
+      <c r="I184" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J184" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B185" s="16">
+        <v>45503</v>
+      </c>
+      <c r="C185" s="17">
+        <v>301511</v>
+      </c>
+      <c r="D185" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="E185" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="F185" s="21" t="s">
+      <c r="F185" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="G185" s="22">
-        <v>95.0</v>
-      </c>
-      <c r="H185" s="35"/>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="B186" s="35"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-      <c r="F186" s="35"/>
-      <c r="G186" s="23"/>
-      <c r="H186" s="35"/>
-    </row>
-    <row r="187" ht="14.25" customHeight="1">
-      <c r="B187" s="35"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-      <c r="F187" s="35"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="35"/>
-    </row>
-    <row r="188" ht="14.25" customHeight="1">
-      <c r="B188" s="1" t="s">
+      <c r="G185" s="19">
+        <v>95</v>
+      </c>
+      <c r="H185" s="32"/>
+      <c r="I185" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J185" s="82" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="79"/>
+      <c r="J186" s="79"/>
+    </row>
+    <row r="187" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="79"/>
+      <c r="J187" s="79"/>
+    </row>
+    <row r="188" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B188" s="69" t="s">
         <v>404</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="5"/>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
-      <c r="B189" s="7" t="s">
+      <c r="C188" s="70"/>
+      <c r="D188" s="70"/>
+      <c r="E188" s="70"/>
+      <c r="F188" s="71"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="75"/>
+      <c r="J188" s="75"/>
+    </row>
+    <row r="189" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B189" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E189" s="58" t="s">
+      <c r="E189" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F189" s="59" t="s">
+      <c r="F189" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G189" s="45" t="s">
+      <c r="G189" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H189" s="12" t="s">
+      <c r="H189" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" ht="14.25" customHeight="1">
-      <c r="B190" s="13"/>
-      <c r="C190" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="D190" s="14" t="s">
+      <c r="I189" s="76"/>
+      <c r="J189" s="76"/>
+    </row>
+    <row r="190" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B190" s="10"/>
+      <c r="C190" s="11">
+        <v>0</v>
+      </c>
+      <c r="D190" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E190" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F190" s="60" t="s">
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
+      <c r="F190" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="G190" s="17"/>
-      <c r="H190" s="18"/>
-    </row>
-    <row r="191" ht="14.25" customHeight="1">
-      <c r="B191" s="19">
-        <v>45506.0</v>
-      </c>
-      <c r="C191" s="20">
-        <v>20940.0</v>
-      </c>
-      <c r="D191" s="20" t="s">
+      <c r="G190" s="14"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="77"/>
+      <c r="J190" s="77"/>
+    </row>
+    <row r="191" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B191" s="16">
+        <v>45506</v>
+      </c>
+      <c r="C191" s="17">
+        <v>20940</v>
+      </c>
+      <c r="D191" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="E191" s="31" t="s">
+      <c r="E191" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="F191" s="21" t="s">
+      <c r="F191" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="G191" s="23"/>
-      <c r="H191" s="33">
-        <v>267.03</v>
-      </c>
-    </row>
-    <row r="192" ht="14.25" customHeight="1">
-      <c r="B192" s="19">
-        <v>45509.0</v>
-      </c>
-      <c r="C192" s="20">
-        <v>51139.0</v>
-      </c>
-      <c r="D192" s="20" t="s">
+      <c r="G191" s="20"/>
+      <c r="H191" s="30">
+        <v>267.02999999999997</v>
+      </c>
+      <c r="I191" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J191" s="83" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B192" s="16">
+        <v>45509</v>
+      </c>
+      <c r="C192" s="17">
+        <v>51139</v>
+      </c>
+      <c r="D192" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="E192" s="31" t="s">
+      <c r="E192" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="F192" s="21" t="s">
+      <c r="F192" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="G192" s="23"/>
-      <c r="H192" s="33">
+      <c r="G192" s="20"/>
+      <c r="H192" s="30">
         <v>232.24</v>
       </c>
-    </row>
-    <row r="193" ht="14.25" customHeight="1">
-      <c r="B193" s="19">
-        <v>45509.0</v>
-      </c>
-      <c r="C193" s="20">
-        <v>51141.0</v>
-      </c>
-      <c r="D193" s="20" t="s">
+      <c r="I192" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J192" s="83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B193" s="16">
+        <v>45509</v>
+      </c>
+      <c r="C193" s="17">
+        <v>51141</v>
+      </c>
+      <c r="D193" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E193" s="31" t="s">
+      <c r="E193" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="F193" s="21" t="s">
+      <c r="F193" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="G193" s="23"/>
-      <c r="H193" s="33">
+      <c r="G193" s="20"/>
+      <c r="H193" s="30">
         <v>633.12</v>
       </c>
-    </row>
-    <row r="194" ht="14.25" customHeight="1">
-      <c r="B194" s="19">
-        <v>45509.0</v>
-      </c>
-      <c r="C194" s="20">
-        <v>51153.0</v>
-      </c>
-      <c r="D194" s="20" t="s">
+      <c r="I193" s="81" t="s">
+        <v>442</v>
+      </c>
+      <c r="J193" s="83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B194" s="16">
+        <v>45509</v>
+      </c>
+      <c r="C194" s="17">
+        <v>51153</v>
+      </c>
+      <c r="D194" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E194" s="31" t="s">
+      <c r="E194" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F194" s="21" t="s">
+      <c r="F194" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="G194" s="23"/>
-      <c r="H194" s="33">
-        <v>559.45</v>
-      </c>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
-      <c r="B195" s="19">
-        <v>45509.0</v>
-      </c>
-      <c r="C195" s="20">
-        <v>72024.0</v>
-      </c>
-      <c r="D195" s="20" t="s">
+      <c r="G194" s="20"/>
+      <c r="H194" s="30">
+        <v>559.45000000000005</v>
+      </c>
+      <c r="I194" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="J194" s="83" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B195" s="16">
+        <v>45509</v>
+      </c>
+      <c r="C195" s="17">
+        <v>72024</v>
+      </c>
+      <c r="D195" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E195" s="31" t="s">
+      <c r="E195" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F195" s="21" t="s">
+      <c r="F195" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="G195" s="23"/>
-      <c r="H195" s="33">
-        <v>69.0</v>
-      </c>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
-      <c r="B196" s="19">
-        <v>45510.0</v>
-      </c>
-      <c r="C196" s="20">
-        <v>61033.0</v>
-      </c>
-      <c r="D196" s="20" t="s">
+      <c r="G195" s="20"/>
+      <c r="H195" s="30">
+        <v>69</v>
+      </c>
+      <c r="I195" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="J195" s="83" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B196" s="16">
+        <v>45510</v>
+      </c>
+      <c r="C196" s="17">
+        <v>61033</v>
+      </c>
+      <c r="D196" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E196" s="31" t="s">
+      <c r="E196" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="F196" s="21" t="s">
+      <c r="F196" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="G196" s="23"/>
-      <c r="H196" s="33">
+      <c r="G196" s="20"/>
+      <c r="H196" s="30">
         <v>1645.26</v>
       </c>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
-      <c r="B197" s="19">
-        <v>45510.0</v>
-      </c>
-      <c r="C197" s="20">
-        <v>61038.0</v>
-      </c>
-      <c r="D197" s="20" t="s">
+      <c r="I196" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J196" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B197" s="16">
+        <v>45510</v>
+      </c>
+      <c r="C197" s="17">
+        <v>61038</v>
+      </c>
+      <c r="D197" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E197" s="31" t="s">
+      <c r="E197" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="F197" s="21" t="s">
+      <c r="F197" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="G197" s="23"/>
-      <c r="H197" s="33">
+      <c r="G197" s="20"/>
+      <c r="H197" s="30">
         <v>1617.1</v>
       </c>
-    </row>
-    <row r="198" ht="14.25" customHeight="1">
-      <c r="B198" s="19">
-        <v>45510.0</v>
-      </c>
-      <c r="C198" s="20">
-        <v>61041.0</v>
-      </c>
-      <c r="D198" s="20" t="s">
+      <c r="I197" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J197" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B198" s="16">
+        <v>45510</v>
+      </c>
+      <c r="C198" s="17">
+        <v>61041</v>
+      </c>
+      <c r="D198" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E198" s="31" t="s">
+      <c r="E198" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F198" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="G198" s="23"/>
-      <c r="H198" s="33">
+      <c r="G198" s="20"/>
+      <c r="H198" s="30">
         <v>1726.23</v>
       </c>
-    </row>
-    <row r="199" ht="14.25" customHeight="1">
-      <c r="B199" s="19">
-        <v>45511.0</v>
-      </c>
-      <c r="C199" s="20">
-        <v>71627.0</v>
-      </c>
-      <c r="D199" s="20" t="s">
+      <c r="I198" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J198" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B199" s="16">
+        <v>45511</v>
+      </c>
+      <c r="C199" s="17">
+        <v>71627</v>
+      </c>
+      <c r="D199" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="E199" s="31" t="s">
+      <c r="E199" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="F199" s="21" t="s">
+      <c r="F199" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="G199" s="23"/>
-      <c r="H199" s="33">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
-      <c r="B200" s="19">
-        <v>45511.0</v>
-      </c>
-      <c r="C200" s="20">
-        <v>71632.0</v>
-      </c>
-      <c r="D200" s="20" t="s">
+      <c r="G199" s="20"/>
+      <c r="H199" s="30">
+        <v>200</v>
+      </c>
+      <c r="I199" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J199" s="83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B200" s="16">
+        <v>45511</v>
+      </c>
+      <c r="C200" s="17">
+        <v>71632</v>
+      </c>
+      <c r="D200" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="E200" s="31" t="s">
+      <c r="E200" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="F200" s="21" t="s">
+      <c r="F200" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="G200" s="23"/>
-      <c r="H200" s="33">
-        <v>245.0</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25" customHeight="1">
-      <c r="B201" s="19">
-        <v>45513.0</v>
-      </c>
-      <c r="C201" s="20">
-        <v>91131.0</v>
-      </c>
-      <c r="D201" s="20" t="s">
+      <c r="G200" s="20"/>
+      <c r="H200" s="30">
+        <v>245</v>
+      </c>
+      <c r="I200" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J200" s="83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B201" s="16">
+        <v>45513</v>
+      </c>
+      <c r="C201" s="17">
+        <v>91131</v>
+      </c>
+      <c r="D201" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E201" s="31" t="s">
+      <c r="E201" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="F201" s="21" t="s">
+      <c r="F201" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="G201" s="23"/>
-      <c r="H201" s="33">
-        <v>550.19</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
-      <c r="B202" s="19">
-        <v>45516.0</v>
-      </c>
-      <c r="C202" s="20">
-        <v>121509.0</v>
-      </c>
-      <c r="D202" s="20" t="s">
+      <c r="G201" s="20"/>
+      <c r="H201" s="30">
+        <v>550.19000000000005</v>
+      </c>
+      <c r="I201" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="J201" s="83" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B202" s="16">
+        <v>45516</v>
+      </c>
+      <c r="C202" s="17">
+        <v>121509</v>
+      </c>
+      <c r="D202" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="E202" s="31" t="s">
+      <c r="E202" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="F202" s="21" t="s">
+      <c r="F202" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="G202" s="23"/>
-      <c r="H202" s="33">
+      <c r="G202" s="20"/>
+      <c r="H202" s="30">
         <v>114.73</v>
       </c>
-    </row>
-    <row r="203" ht="14.25" customHeight="1">
-      <c r="B203" s="19">
-        <v>45516.0</v>
-      </c>
-      <c r="C203" s="51">
-        <v>341.0</v>
-      </c>
-      <c r="D203" s="35" t="s">
+      <c r="I202" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="J202" s="83" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B203" s="16">
+        <v>45516</v>
+      </c>
+      <c r="C203" s="45">
+        <v>341</v>
+      </c>
+      <c r="D203" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="F203" s="21" t="s">
+      <c r="F203" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="G203" s="22">
+      <c r="G203" s="19">
         <v>2990.95</v>
       </c>
-      <c r="H203" s="35"/>
-    </row>
-    <row r="204" ht="14.25" customHeight="1">
-      <c r="B204" s="35"/>
-      <c r="C204" s="35"/>
-      <c r="D204" s="35"/>
-      <c r="E204" s="35"/>
-      <c r="F204" s="35"/>
-      <c r="G204" s="35"/>
-      <c r="H204" s="35"/>
-    </row>
-    <row r="205" ht="14.25" customHeight="1">
-      <c r="B205" s="35"/>
-      <c r="C205" s="35"/>
-      <c r="D205" s="35"/>
-      <c r="E205" s="35"/>
-      <c r="F205" s="35"/>
-      <c r="G205" s="35"/>
-      <c r="H205" s="35"/>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
-      <c r="B206" s="35"/>
-      <c r="C206" s="35"/>
-      <c r="D206" s="35"/>
-      <c r="E206" s="35"/>
-      <c r="F206" s="35"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="35"/>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
-      <c r="B207" s="35"/>
-      <c r="C207" s="35"/>
-      <c r="D207" s="35"/>
-      <c r="E207" s="35"/>
-      <c r="F207" s="35"/>
-      <c r="G207" s="35"/>
-      <c r="H207" s="35"/>
-    </row>
-    <row r="208" ht="14.25" customHeight="1">
-      <c r="B208" s="35"/>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="35"/>
-      <c r="G208" s="35"/>
-      <c r="H208" s="35"/>
-    </row>
-    <row r="209" ht="14.25" customHeight="1">
-      <c r="B209" s="35"/>
-      <c r="C209" s="35"/>
-      <c r="D209" s="35"/>
-      <c r="E209" s="35"/>
-      <c r="F209" s="35"/>
-      <c r="G209" s="35"/>
-      <c r="H209" s="35"/>
-    </row>
-    <row r="210" ht="14.25" customHeight="1">
-      <c r="B210" s="35"/>
-      <c r="C210" s="35"/>
-      <c r="D210" s="35"/>
-      <c r="E210" s="35"/>
-      <c r="F210" s="35"/>
-      <c r="G210" s="35"/>
-      <c r="H210" s="35"/>
-    </row>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="J203" s="82" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="79"/>
+      <c r="J204" s="79"/>
+    </row>
+    <row r="205" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="79"/>
+      <c r="J205" s="79"/>
+    </row>
+    <row r="206" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="79"/>
+      <c r="J206" s="79"/>
+    </row>
+    <row r="207" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="79"/>
+      <c r="J207" s="79"/>
+    </row>
+    <row r="208" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="79"/>
+      <c r="J208" s="79"/>
+    </row>
+    <row r="209" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="79"/>
+      <c r="J209" s="79"/>
+    </row>
+    <row r="210" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="79"/>
+      <c r="J210" s="79"/>
+    </row>
+    <row r="211" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="212" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="213" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="214" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="215" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="216" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="217" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="218" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="219" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="220" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="221" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="222" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="223" spans="2:10" ht="14.25" customHeight="1"/>
+    <row r="224" spans="2:10" ht="14.25" customHeight="1"/>
     <row r="225" ht="14.25" customHeight="1"/>
     <row r="226" ht="14.25" customHeight="1"/>
     <row r="227" ht="14.25" customHeight="1"/>
@@ -6227,26 +7497,26 @@
     <row r="238" ht="14.25" customHeight="1"/>
     <row r="239" ht="14.25" customHeight="1"/>
     <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1">
-      <c r="D249" s="6" t="s">
+    <row r="241" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="242" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="243" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="244" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="245" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="246" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="247" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="248" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="249" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D249" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="250" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="251" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="252" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="253" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="254" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="255" spans="4:4" ht="14.25" customHeight="1"/>
+    <row r="256" spans="4:4" ht="14.25" customHeight="1"/>
     <row r="257" ht="14.25" customHeight="1"/>
     <row r="258" ht="14.25" customHeight="1"/>
     <row r="259" ht="14.25" customHeight="1"/>
@@ -6993,18 +8263,16 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B188:F188"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B188:F188"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>